--- a/ListasDatos/Morales Vallejo Jorge Luis_2021.xlsx
+++ b/ListasDatos/Morales Vallejo Jorge Luis_2021.xlsx
@@ -499,7 +499,7 @@
     <t>2722351304</t>
   </si>
   <si>
-    <t>27272100000000000</t>
+    <t>2.72721e+16</t>
   </si>
   <si>
     <t>2722110115</t>
@@ -577,7 +577,7 @@
     <t>MARISOL ARELLANO SERENA</t>
   </si>
   <si>
-    <t>MUCIO SERGIO NEPOMUCENO DE JESÚS</t>
+    <t>MARÍA VIVIANA DE JESÚS MOLOHUA</t>
   </si>
   <si>
     <t>CLEMENTE OFICIAL VAZQUEZ</t>
@@ -586,7 +586,7 @@
     <t>LUZ MARÍA PALOMARES DE LOS SANTOS</t>
   </si>
   <si>
-    <t>ENRIQUETA YULI PÉREZ CONTRERAS GEORGINA CONTRERAS LEYVA PEREZ CONTRERAS</t>
+    <t>ENRIQUETA YULI PEREZ CONTRERAS</t>
   </si>
   <si>
     <t>MARIA ELENA IXMATLAHUA JUAREZ</t>
@@ -1282,7 +1282,7 @@
     <t>LAURA PEREA VILLASEÑOR</t>
   </si>
   <si>
-    <t>NORMA MIGUELINA RUIZ CASTILLO RUIZ CASTILLO</t>
+    <t>NORMA MIGUELINA RUIZ CASTILLO</t>
   </si>
   <si>
     <t>ROSAS HORTENSIA ORTEGA</t>
@@ -2893,7 +2893,7 @@
     <t>DÁMARIS CID PÉREZ</t>
   </si>
   <si>
-    <t>ANA LAURA HUERTA JORGE ALFONSO CASTILLO CRUZ ANA LAURA HUERTA JORGE</t>
+    <t>ANA LAURA HUERTA JORGE</t>
   </si>
   <si>
     <t>MARTHA ELENA PÉREZ GUERRA</t>
